--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iniad/Documents/team_project/g5-t2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14132BFE-614E-744E-9FAE-9F94B01E256C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E35571-CE54-574C-86AA-537482119C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="82">
   <si>
     <t xml:space="preserve">ガントチャート </t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>山本</t>
-  </si>
-  <si>
-    <t>進行中</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -283,11 +280,7 @@
     <phoneticPr fontId="32"/>
   </si>
   <si>
-    <t>進行中</t>
-    <rPh sb="0" eb="2">
-      <t>シンコウ</t>
-    </rPh>
-    <phoneticPr fontId="32"/>
+    <t>完了</t>
   </si>
 </sst>
 </file>
@@ -930,31 +923,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,14 +944,27 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1359,7 +1352,7 @@
   <dimension ref="A1:DP49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -1500,83 +1493,83 @@
     </row>
     <row r="2" spans="1:120" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
-      <c r="BJ2" s="69"/>
-      <c r="BK2" s="69"/>
-      <c r="BL2" s="69"/>
-      <c r="BM2" s="69"/>
-      <c r="BN2" s="69"/>
-      <c r="BO2" s="69"/>
-      <c r="BP2" s="69"/>
-      <c r="BQ2" s="69"/>
-      <c r="BR2" s="69"/>
-      <c r="BS2" s="69"/>
-      <c r="BT2" s="69"/>
-      <c r="BU2" s="69"/>
-      <c r="BV2" s="69"/>
-      <c r="BW2" s="69"/>
-      <c r="BX2" s="69"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="63"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="63"/>
+      <c r="BB2" s="63"/>
+      <c r="BC2" s="63"/>
+      <c r="BD2" s="63"/>
+      <c r="BE2" s="63"/>
+      <c r="BF2" s="63"/>
+      <c r="BG2" s="63"/>
+      <c r="BH2" s="63"/>
+      <c r="BI2" s="63"/>
+      <c r="BJ2" s="63"/>
+      <c r="BK2" s="63"/>
+      <c r="BL2" s="63"/>
+      <c r="BM2" s="63"/>
+      <c r="BN2" s="63"/>
+      <c r="BO2" s="63"/>
+      <c r="BP2" s="63"/>
+      <c r="BQ2" s="63"/>
+      <c r="BR2" s="63"/>
+      <c r="BS2" s="63"/>
+      <c r="BT2" s="63"/>
+      <c r="BU2" s="63"/>
+      <c r="BV2" s="63"/>
+      <c r="BW2" s="63"/>
+      <c r="BX2" s="63"/>
       <c r="BY2" s="12"/>
       <c r="BZ2" s="12"/>
       <c r="CA2" s="12"/>
@@ -1746,78 +1739,78 @@
     </row>
     <row r="4" spans="1:120" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="72" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="66"/>
-      <c r="AR4" s="66"/>
-      <c r="AS4" s="66"/>
-      <c r="AT4" s="66"/>
-      <c r="AU4" s="66"/>
-      <c r="AV4" s="66"/>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="66"/>
-      <c r="AY4" s="66"/>
-      <c r="AZ4" s="66"/>
-      <c r="BA4" s="66"/>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="66"/>
-      <c r="BD4" s="66"/>
-      <c r="BE4" s="66"/>
-      <c r="BF4" s="66"/>
-      <c r="BG4" s="66"/>
-      <c r="BH4" s="66"/>
-      <c r="BI4" s="66"/>
-      <c r="BJ4" s="66"/>
-      <c r="BK4" s="66"/>
-      <c r="BL4" s="66"/>
-      <c r="BM4" s="66"/>
-      <c r="BN4" s="66"/>
-      <c r="BO4" s="66"/>
-      <c r="BP4" s="66"/>
-      <c r="BQ4" s="66"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="65"/>
+      <c r="AQ4" s="65"/>
+      <c r="AR4" s="65"/>
+      <c r="AS4" s="65"/>
+      <c r="AT4" s="65"/>
+      <c r="AU4" s="65"/>
+      <c r="AV4" s="65"/>
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="65"/>
+      <c r="AY4" s="65"/>
+      <c r="AZ4" s="65"/>
+      <c r="BA4" s="65"/>
+      <c r="BB4" s="65"/>
+      <c r="BC4" s="65"/>
+      <c r="BD4" s="65"/>
+      <c r="BE4" s="65"/>
+      <c r="BF4" s="65"/>
+      <c r="BG4" s="65"/>
+      <c r="BH4" s="65"/>
+      <c r="BI4" s="65"/>
+      <c r="BJ4" s="65"/>
+      <c r="BK4" s="65"/>
+      <c r="BL4" s="65"/>
+      <c r="BM4" s="65"/>
+      <c r="BN4" s="65"/>
+      <c r="BO4" s="65"/>
+      <c r="BP4" s="65"/>
+      <c r="BQ4" s="65"/>
       <c r="BR4" s="18"/>
       <c r="BS4" s="10"/>
       <c r="BT4" s="10"/>
@@ -1872,36 +1865,36 @@
     </row>
     <row r="5" spans="1:120" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="76" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
       <c r="AB5" s="20"/>
       <c r="AC5" s="20"/>
       <c r="AD5" s="20"/>
@@ -2242,157 +2235,157 @@
     </row>
     <row r="8" spans="1:120" ht="17.25" customHeight="1">
       <c r="A8" s="25"/>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="74" t="s">
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="63"/>
-      <c r="AE8" s="63"/>
-      <c r="AF8" s="63"/>
-      <c r="AG8" s="63"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="63"/>
-      <c r="AL8" s="63"/>
-      <c r="AM8" s="63"/>
-      <c r="AN8" s="63"/>
-      <c r="AO8" s="63"/>
-      <c r="AP8" s="63"/>
-      <c r="AQ8" s="63"/>
-      <c r="AR8" s="63"/>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="63"/>
-      <c r="AU8" s="63"/>
-      <c r="AV8" s="63"/>
-      <c r="AW8" s="63"/>
-      <c r="AX8" s="63"/>
-      <c r="AY8" s="63"/>
-      <c r="AZ8" s="63"/>
-      <c r="BA8" s="63"/>
-      <c r="BB8" s="63"/>
-      <c r="BC8" s="63"/>
-      <c r="BD8" s="63"/>
-      <c r="BE8" s="63"/>
-      <c r="BF8" s="75" t="s">
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="67"/>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="67"/>
+      <c r="AV8" s="67"/>
+      <c r="AW8" s="67"/>
+      <c r="AX8" s="67"/>
+      <c r="AY8" s="67"/>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="67"/>
+      <c r="BB8" s="67"/>
+      <c r="BC8" s="67"/>
+      <c r="BD8" s="67"/>
+      <c r="BE8" s="67"/>
+      <c r="BF8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="BG8" s="63"/>
-      <c r="BH8" s="63"/>
-      <c r="BI8" s="63"/>
-      <c r="BJ8" s="63"/>
-      <c r="BK8" s="63"/>
-      <c r="BL8" s="63"/>
-      <c r="BM8" s="63"/>
-      <c r="BN8" s="63"/>
-      <c r="BO8" s="63"/>
-      <c r="BP8" s="63"/>
-      <c r="BQ8" s="63"/>
-      <c r="BR8" s="63"/>
-      <c r="BS8" s="63"/>
-      <c r="BT8" s="63"/>
-      <c r="BU8" s="63"/>
-      <c r="BV8" s="63"/>
-      <c r="BW8" s="63"/>
-      <c r="BX8" s="63"/>
-      <c r="BY8" s="63"/>
-      <c r="BZ8" s="63"/>
-      <c r="CA8" s="63"/>
-      <c r="CB8" s="63"/>
-      <c r="CC8" s="63"/>
-      <c r="CD8" s="63"/>
-      <c r="CE8" s="63"/>
-      <c r="CF8" s="63"/>
-      <c r="CG8" s="63"/>
-      <c r="CH8" s="63"/>
-      <c r="CI8" s="63"/>
-      <c r="CJ8" s="63"/>
-      <c r="CK8" s="62" t="s">
+      <c r="BG8" s="67"/>
+      <c r="BH8" s="67"/>
+      <c r="BI8" s="67"/>
+      <c r="BJ8" s="67"/>
+      <c r="BK8" s="67"/>
+      <c r="BL8" s="67"/>
+      <c r="BM8" s="67"/>
+      <c r="BN8" s="67"/>
+      <c r="BO8" s="67"/>
+      <c r="BP8" s="67"/>
+      <c r="BQ8" s="67"/>
+      <c r="BR8" s="67"/>
+      <c r="BS8" s="67"/>
+      <c r="BT8" s="67"/>
+      <c r="BU8" s="67"/>
+      <c r="BV8" s="67"/>
+      <c r="BW8" s="67"/>
+      <c r="BX8" s="67"/>
+      <c r="BY8" s="67"/>
+      <c r="BZ8" s="67"/>
+      <c r="CA8" s="67"/>
+      <c r="CB8" s="67"/>
+      <c r="CC8" s="67"/>
+      <c r="CD8" s="67"/>
+      <c r="CE8" s="67"/>
+      <c r="CF8" s="67"/>
+      <c r="CG8" s="67"/>
+      <c r="CH8" s="67"/>
+      <c r="CI8" s="67"/>
+      <c r="CJ8" s="67"/>
+      <c r="CK8" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="CL8" s="63"/>
-      <c r="CM8" s="63"/>
-      <c r="CN8" s="63"/>
-      <c r="CO8" s="63"/>
-      <c r="CP8" s="63"/>
-      <c r="CQ8" s="63"/>
-      <c r="CR8" s="63"/>
-      <c r="CS8" s="63"/>
-      <c r="CT8" s="63"/>
-      <c r="CU8" s="63"/>
-      <c r="CV8" s="63"/>
-      <c r="CW8" s="63"/>
-      <c r="CX8" s="63"/>
-      <c r="CY8" s="63"/>
-      <c r="CZ8" s="63"/>
-      <c r="DA8" s="63"/>
-      <c r="DB8" s="63"/>
-      <c r="DC8" s="63"/>
-      <c r="DD8" s="63"/>
-      <c r="DE8" s="63"/>
-      <c r="DF8" s="63"/>
-      <c r="DG8" s="63"/>
-      <c r="DH8" s="63"/>
-      <c r="DI8" s="63"/>
-      <c r="DJ8" s="63"/>
-      <c r="DK8" s="63"/>
-      <c r="DL8" s="63"/>
-      <c r="DM8" s="63"/>
-      <c r="DN8" s="63"/>
-      <c r="DO8" s="64"/>
+      <c r="CL8" s="67"/>
+      <c r="CM8" s="67"/>
+      <c r="CN8" s="67"/>
+      <c r="CO8" s="67"/>
+      <c r="CP8" s="67"/>
+      <c r="CQ8" s="67"/>
+      <c r="CR8" s="67"/>
+      <c r="CS8" s="67"/>
+      <c r="CT8" s="67"/>
+      <c r="CU8" s="67"/>
+      <c r="CV8" s="67"/>
+      <c r="CW8" s="67"/>
+      <c r="CX8" s="67"/>
+      <c r="CY8" s="67"/>
+      <c r="CZ8" s="67"/>
+      <c r="DA8" s="67"/>
+      <c r="DB8" s="67"/>
+      <c r="DC8" s="67"/>
+      <c r="DD8" s="67"/>
+      <c r="DE8" s="67"/>
+      <c r="DF8" s="67"/>
+      <c r="DG8" s="67"/>
+      <c r="DH8" s="67"/>
+      <c r="DI8" s="67"/>
+      <c r="DJ8" s="67"/>
+      <c r="DK8" s="67"/>
+      <c r="DL8" s="67"/>
+      <c r="DM8" s="67"/>
+      <c r="DN8" s="67"/>
+      <c r="DO8" s="74"/>
       <c r="DP8" s="22"/>
     </row>
     <row r="9" spans="1:120" ht="17.25" customHeight="1">
       <c r="A9" s="26"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
       <c r="I9" s="27">
         <v>44482</v>
       </c>
@@ -2730,13 +2723,13 @@
     </row>
     <row r="10" spans="1:120" ht="17.25" customHeight="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
       <c r="I10" s="28">
         <v>44482</v>
       </c>
@@ -3357,7 +3350,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I13" s="49"/>
       <c r="J13" s="50"/>
@@ -3475,10 +3468,10 @@
     <row r="14" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A14" s="37"/>
       <c r="B14" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="39" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>24</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>21</v>
@@ -3494,7 +3487,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I14" s="49"/>
       <c r="J14" s="50"/>
@@ -3612,10 +3605,10 @@
     <row r="15" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A15" s="37"/>
       <c r="B15" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="39" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>26</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>21</v>
@@ -3631,7 +3624,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I15" s="49"/>
       <c r="J15" s="50"/>
@@ -3749,10 +3742,10 @@
     <row r="16" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A16" s="37"/>
       <c r="B16" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>28</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>21</v>
@@ -3768,7 +3761,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16" s="49"/>
       <c r="J16" s="50"/>
@@ -3886,10 +3879,10 @@
     <row r="17" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A17" s="37"/>
       <c r="B17" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>30</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>21</v>
@@ -3905,7 +3898,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" s="49"/>
       <c r="J17" s="50"/>
@@ -4026,10 +4019,10 @@
         <v>1.3</v>
       </c>
       <c r="C18" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>31</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>32</v>
       </c>
       <c r="E18" s="40">
         <v>44482</v>
@@ -4163,10 +4156,10 @@
         <v>1.4</v>
       </c>
       <c r="C19" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="39" t="s">
         <v>33</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>34</v>
       </c>
       <c r="E19" s="40">
         <v>44482</v>
@@ -4300,7 +4293,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
@@ -4426,10 +4419,10 @@
         <v>2.1</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="40"/>
@@ -4556,7 +4549,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>21</v>
@@ -4683,10 +4676,10 @@
     <row r="23" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A23" s="37"/>
       <c r="B23" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="39" t="s">
         <v>38</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>39</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>21</v>
@@ -4813,10 +4806,10 @@
     <row r="24" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A24" s="37"/>
       <c r="B24" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="39" t="s">
         <v>40</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>41</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>21</v>
@@ -4943,10 +4936,10 @@
     <row r="25" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A25" s="37"/>
       <c r="B25" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="39" t="s">
         <v>42</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>43</v>
       </c>
       <c r="D25" s="39" t="s">
         <v>21</v>
@@ -5073,10 +5066,10 @@
     <row r="26" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A26" s="37"/>
       <c r="B26" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="39" t="s">
         <v>44</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>45</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>21</v>
@@ -5203,10 +5196,10 @@
     <row r="27" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A27" s="37"/>
       <c r="B27" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="39" t="s">
         <v>46</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>47</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>21</v>
@@ -5333,10 +5326,10 @@
     <row r="28" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A28" s="37"/>
       <c r="B28" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="39" t="s">
         <v>48</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>49</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>21</v>
@@ -5463,10 +5456,10 @@
     <row r="29" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A29" s="37"/>
       <c r="B29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="39" t="s">
         <v>50</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>51</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>21</v>
@@ -5593,10 +5586,10 @@
     <row r="30" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A30" s="37"/>
       <c r="B30" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="39" t="s">
         <v>52</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>53</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>21</v>
@@ -5726,7 +5719,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>18</v>
@@ -5853,10 +5846,10 @@
     <row r="32" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>18</v>
@@ -5983,10 +5976,10 @@
     <row r="33" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A33" s="37"/>
       <c r="B33" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="39" t="s">
         <v>56</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>57</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>18</v>
@@ -6113,10 +6106,10 @@
     <row r="34" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A34" s="37"/>
       <c r="B34" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>18</v>
@@ -6243,10 +6236,10 @@
     <row r="35" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A35" s="37"/>
       <c r="B35" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="39" t="s">
         <v>59</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>60</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>18</v>
@@ -6376,10 +6369,10 @@
         <v>2.4</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
@@ -6503,13 +6496,13 @@
     <row r="37" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A37" s="37"/>
       <c r="B37" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="39" t="s">
-        <v>63</v>
-      </c>
       <c r="D37" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
@@ -6633,13 +6626,13 @@
     <row r="38" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A38" s="37"/>
       <c r="B38" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="39" t="s">
-        <v>65</v>
-      </c>
       <c r="D38" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
@@ -6763,13 +6756,13 @@
     <row r="39" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A39" s="37"/>
       <c r="B39" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="39" t="s">
-        <v>67</v>
-      </c>
       <c r="D39" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E39" s="40"/>
       <c r="F39" s="40"/>
@@ -6896,7 +6889,7 @@
         <v>2.5</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>21</v>
@@ -7023,10 +7016,10 @@
     <row r="41" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A41" s="37"/>
       <c r="B41" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="39" t="s">
         <v>69</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>70</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>21</v>
@@ -7153,10 +7146,10 @@
     <row r="42" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A42" s="37"/>
       <c r="B42" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="39" t="s">
         <v>71</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>72</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>21</v>
@@ -7286,7 +7279,7 @@
         <v>2.6</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>18</v>
@@ -7413,10 +7406,10 @@
     <row r="44" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A44" s="37"/>
       <c r="B44" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="39" t="s">
         <v>74</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>75</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>18</v>
@@ -7543,10 +7536,10 @@
     <row r="45" spans="1:120" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A45" s="37"/>
       <c r="B45" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="39" t="s">
         <v>76</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>77</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>18</v>
@@ -7676,10 +7669,10 @@
         <v>2.7</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E46" s="40"/>
       <c r="F46" s="40"/>
@@ -7806,7 +7799,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
@@ -7932,10 +7925,10 @@
         <v>3.1</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" s="40"/>
       <c r="F48" s="40"/>
@@ -8182,11 +8175,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="I8:AA8"/>
+    <mergeCell ref="CK8:DO8"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="O2:BX2"/>
+    <mergeCell ref="P4:BQ4"/>
+    <mergeCell ref="I2:N2"/>
     <mergeCell ref="AB8:BE8"/>
     <mergeCell ref="BF8:CJ8"/>
     <mergeCell ref="B8:B10"/>
@@ -8198,12 +8192,11 @@
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="CK8:DO8"/>
-    <mergeCell ref="P5:AA5"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="O2:BX2"/>
-    <mergeCell ref="P4:BQ4"/>
-    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="I8:AA8"/>
   </mergeCells>
   <phoneticPr fontId="32"/>
   <conditionalFormatting sqref="I10:DO10">
